--- a/机器配置.xlsx
+++ b/机器配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17826\Desktop\FTC\FTCteamcode2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D4540C-CBD9-4959-8EA2-1594CBFF0455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B7CA61-F251-42FB-AC23-4A9EAB25533E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="硬件接口与参数" sheetId="1" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>翻转收取杆（注意有三个状态）</t>
   </si>
   <si>
-    <t>liftDecantLow   = gamepad2.dpad_up;</t>
-  </si>
-  <si>
     <t>dpad上 键单次按下</t>
   </si>
   <si>
@@ -220,16 +217,10 @@
     <t>自动将收取杆进入垂直安全状态</t>
   </si>
   <si>
-    <t>liftDecantHigh  = gamepad2.left_bumper;</t>
-  </si>
-  <si>
     <t>左bumper 键单次按下</t>
   </si>
   <si>
     <t>电梯上升至倒高样本状态</t>
-  </si>
-  <si>
-    <t>liftHighSuspend = gamepad2.dpad_right;</t>
   </si>
   <si>
     <t>dpad右 键单次按下</t>
@@ -292,6 +283,18 @@
   </si>
   <si>
     <t>机器逆时针旋转一小段</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>liftDecantLow</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>liftDecantHigh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>liftHighSuspend</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -429,11 +432,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1328,7 +1331,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D25" sqref="D25:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1404,8 +1407,8 @@
       <c r="B6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>83</v>
+      <c r="C6" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1413,10 +1416,10 @@
         <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>84</v>
+        <v>61</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1424,10 +1427,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1487,96 +1490,96 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="6" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/机器配置.xlsx
+++ b/机器配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17826\Desktop\FTC\FTCteamcode2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B7CA61-F251-42FB-AC23-4A9EAB25533E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90E4FBF-7210-48DD-8021-4C163EC2A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,39 +202,24 @@
     <t>flipArm</t>
   </si>
   <si>
-    <t>a 键单次按下</t>
-  </si>
-  <si>
     <t>翻转收取杆（注意有三个状态）</t>
   </si>
   <si>
-    <t>dpad上 键单次按下</t>
-  </si>
-  <si>
     <t>电梯上升至倒低样本状态</t>
   </si>
   <si>
     <t>自动将收取杆进入垂直安全状态</t>
   </si>
   <si>
-    <t>左bumper 键单次按下</t>
-  </si>
-  <si>
     <t>电梯上升至倒高样本状态</t>
   </si>
   <si>
-    <t>dpad右 键单次按下</t>
-  </si>
-  <si>
     <t>电梯上升至挂入高样本的准备状态</t>
   </si>
   <si>
     <t>liftIDLE</t>
   </si>
   <si>
-    <t>dpad下 键单次按下</t>
-  </si>
-  <si>
     <t>电梯回收</t>
   </si>
   <si>
@@ -266,9 +251,6 @@
   </si>
   <si>
     <t>probe</t>
-  </si>
-  <si>
-    <t>右bumper 键单次按下</t>
   </si>
   <si>
     <t>伸缩收取滑轨</t>
@@ -295,6 +277,30 @@
   </si>
   <si>
     <t>liftHighSuspend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>左bumper 键</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 键</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>左bumper 键 2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpad上 键</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpad下 键</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>右bumper 键</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1331,7 +1337,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D28"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1408,29 +1414,29 @@
         <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>61</v>
+      <c r="B7" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>78</v>
+      <c r="B8" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1481,105 +1487,105 @@
       <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/机器配置.xlsx
+++ b/机器配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17826\Desktop\FTC\FTCteamcode2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90E4FBF-7210-48DD-8021-4C163EC2A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F5B31-0079-42C6-A741-F9FE5CBE836F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="硬件接口与参数" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>control hub</t>
   </si>
@@ -181,24 +181,6 @@
     <t>游戏手柄2</t>
   </si>
   <si>
-    <t>intakeSamples</t>
-  </si>
-  <si>
-    <t>左杆向右打</t>
-  </si>
-  <si>
-    <t>吸取样本</t>
-  </si>
-  <si>
-    <t>outtakeSamples</t>
-  </si>
-  <si>
-    <t>左杆向左打</t>
-  </si>
-  <si>
-    <t>吐出样本</t>
-  </si>
-  <si>
     <t>flipArm</t>
   </si>
   <si>
@@ -226,16 +208,10 @@
     <t>decant</t>
   </si>
   <si>
-    <t>x 键单次按下</t>
-  </si>
-  <si>
     <t>倒样本</t>
   </si>
   <si>
     <t>suspend</t>
-  </si>
-  <si>
-    <t>y 键单次按下</t>
   </si>
   <si>
     <t>挂入样本</t>
@@ -268,14 +244,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>liftDecantLow</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>liftDecantHigh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>liftHighSuspend</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -302,6 +270,20 @@
   <si>
     <t>右bumper 键</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x 键</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸吐样本</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampleIO</t>
+  </si>
+  <si>
+    <t>liftDecantUpping</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1319,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1414,7 +1396,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1422,10 +1404,10 @@
         <v>39</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1433,10 +1415,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1463,129 +1445,123 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>78</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/机器配置.xlsx
+++ b/机器配置.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17826\Desktop\FTC\FTCteamcode2024-2025\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5F5B31-0079-42C6-A741-F9FE5CBE836F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="硬件接口与参数" sheetId="1" r:id="rId1"/>
@@ -25,6 +19,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -178,36 +174,78 @@
     <t>右杆向左/右打</t>
   </si>
   <si>
+    <t>机器顺时针/逆时针旋转</t>
+  </si>
+  <si>
+    <t>左bumper 键</t>
+  </si>
+  <si>
+    <t>机器顺时针旋转一小段</t>
+  </si>
+  <si>
+    <t>右bumper 键</t>
+  </si>
+  <si>
+    <t>机器逆时针旋转一小段</t>
+  </si>
+  <si>
     <t>游戏手柄2</t>
   </si>
   <si>
+    <t>sampleIO</t>
+  </si>
+  <si>
+    <t>a 键</t>
+  </si>
+  <si>
+    <t>吸吐样本</t>
+  </si>
+  <si>
     <t>flipArm</t>
   </si>
   <si>
     <t>翻转收取杆（注意有三个状态）</t>
   </si>
   <si>
+    <t>liftDecantUpping</t>
+  </si>
+  <si>
     <t>电梯上升至倒低样本状态</t>
   </si>
   <si>
     <t>自动将收取杆进入垂直安全状态</t>
   </si>
   <si>
+    <t>左bumper 键 2</t>
+  </si>
+  <si>
     <t>电梯上升至倒高样本状态</t>
   </si>
   <si>
+    <t>liftHighSuspend</t>
+  </si>
+  <si>
+    <t>dpad上 键</t>
+  </si>
+  <si>
     <t>电梯上升至挂入高样本的准备状态</t>
   </si>
   <si>
     <t>liftIDLE</t>
   </si>
   <si>
+    <t>dpad下 键</t>
+  </si>
+  <si>
     <t>电梯回收</t>
   </si>
   <si>
     <t>decant</t>
   </si>
   <si>
+    <t>x 键</t>
+  </si>
+  <si>
     <t>倒样本</t>
   </si>
   <si>
@@ -230,67 +268,19 @@
   </si>
   <si>
     <t>伸缩收取滑轨</t>
-  </si>
-  <si>
-    <t>机器顺时针/逆时针旋转</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器顺时针旋转一小段</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器逆时针旋转一小段</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>liftHighSuspend</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>左bumper 键</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>a 键</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>左bumper 键 2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dpad上 键</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dpad下 键</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>右bumper 键</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>x 键</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸吐样本</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sampleIO</t>
-  </si>
-  <si>
-    <t>liftDecantUpping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,13 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -329,35 +312,357 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <name val="JetBrains Mono"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="9.8"/>
+      <name val="JetBrains Mono"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -389,9 +694,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -405,6 +952,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -417,168 +967,96 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -589,7 +1067,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -617,40 +1095,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -900,434 +1492,435 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="15.1759259259259" customWidth="1"/>
+    <col min="3" max="3" width="16.3611111111111" customWidth="1"/>
+    <col min="4" max="4" width="7.36111111111111" customWidth="1"/>
+    <col min="5" max="5" width="13.8148148148148" customWidth="1"/>
+    <col min="6" max="6" width="13.9074074074074" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7">
+      <c r="A3" s="9">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7">
+      <c r="A10" s="9">
         <v>0</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7">
+      <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7">
+      <c r="A15" s="9">
         <v>0</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9">
         <v>1</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7">
+      <c r="A17" s="9">
         <v>2</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7">
+      <c r="A18" s="9">
         <v>3</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7">
+      <c r="A19" s="9">
         <v>4</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7">
+      <c r="A20" s="9">
         <v>5</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7">
+      <c r="A21" s="9">
         <v>6</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7">
+      <c r="A22" s="9">
         <v>7</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7">
+      <c r="A24" s="9">
         <v>0</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="E24" s="7" t="s">
+      <c r="C24" s="9"/>
+      <c r="E24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7">
+      <c r="A25" s="9">
         <v>1</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7">
+      <c r="A26" s="9">
         <v>2</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7">
+      <c r="A27" s="9">
         <v>3</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="3" max="3" width="33.36328125" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7222222222222" customWidth="1"/>
+    <col min="2" max="2" width="20.2685185185185" customWidth="1"/>
+    <col min="3" max="3" width="33.3611111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1352,7 +1945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -1363,7 +1956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -1388,42 +1981,42 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>68</v>
+      <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1443,133 +2036,128 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
+      <c r="B31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D24:D27"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/机器配置.xlsx
+++ b/机器配置.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>control hub</t>
   </si>
@@ -222,7 +222,7 @@
     <t>电梯上升至倒高样本状态</t>
   </si>
   <si>
-    <t>liftHighSuspend</t>
+    <t>liftHighSuspendPrepare</t>
   </si>
   <si>
     <t>dpad上 键</t>
@@ -240,19 +240,13 @@
     <t>电梯回收</t>
   </si>
   <si>
-    <t>decant</t>
+    <t>decantOrSuspend</t>
   </si>
   <si>
     <t>x 键</t>
   </si>
   <si>
-    <t>倒样本</t>
-  </si>
-  <si>
-    <t>suspend</t>
-  </si>
-  <si>
-    <t>挂入样本</t>
+    <t>倒样本与挂入样本</t>
   </si>
   <si>
     <t>clipOption</t>
@@ -264,7 +258,7 @@
     <t>样本夹开关</t>
   </si>
   <si>
-    <t>probe</t>
+    <t>armScaleOperate</t>
   </si>
   <si>
     <t>伸缩收取滑轨</t>
@@ -1909,15 +1903,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.7222222222222" customWidth="1"/>
+    <col min="1" max="1" width="22.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="20.2685185185185" customWidth="1"/>
     <col min="3" max="3" width="33.3611111111111" customWidth="1"/>
     <col min="4" max="4" width="35.8148148148148" customWidth="1"/>
@@ -2073,9 +2067,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="A25" s="7"/>
       <c r="B25" s="6" t="s">
         <v>62</v>
       </c>
@@ -2123,33 +2115,22 @@
       <c r="A29" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>71</v>
+      <c r="B29" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="3" t="s">
         <v>76</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/机器配置.xlsx
+++ b/机器配置.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>control hub</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>armScaleOperate</t>
+  </si>
+  <si>
+    <t>伸缩收取滑轨与收取结构</t>
   </si>
   <si>
     <t>伸缩收取滑轨</t>
@@ -274,7 +277,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,13 +304,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -806,137 +802,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,9 +952,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1509,390 +1502,390 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>0</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>0</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>0</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>5</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>6</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>7</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>0</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="C24" s="8"/>
+      <c r="E24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>1</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>2</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>3</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1903,10 +1896,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1982,7 +1975,7 @@
       <c r="B6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1990,10 +1983,10 @@
       <c r="A7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2001,10 +1994,10 @@
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2031,21 +2024,21 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2053,58 +2046,58 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2112,7 +2105,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -2123,14 +2116,22 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/机器配置.xlsx
+++ b/机器配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="硬件接口与参数" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>control hub</t>
   </si>
@@ -42,22 +42,34 @@
     <t>-</t>
   </si>
   <si>
+    <t>leftArm</t>
+  </si>
+  <si>
     <t>clip</t>
   </si>
   <si>
     <t>缩0 放0.5</t>
   </si>
   <si>
+    <t>rightArm</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>缩0 放1</t>
+  </si>
+  <si>
     <t>leftScale</t>
   </si>
   <si>
     <t>伸：0.5 缩：1</t>
   </si>
   <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>缩0 放1</t>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>中间 0.79</t>
   </si>
   <si>
     <t>rightScale</t>
@@ -66,13 +78,7 @@
     <t>伸：1 缩：0.5</t>
   </si>
   <si>
-    <t>leftArm</t>
-  </si>
-  <si>
-    <t>缩0.86 放0.28</t>
-  </si>
-  <si>
-    <t>rightArm</t>
+    <t>claw</t>
   </si>
   <si>
     <t>intake</t>
@@ -1487,8 +1493,8 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1537,13 +1543,15 @@
       <c r="A3" s="8">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -1553,11 +1561,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="8"/>
+      <c r="D4"/>
       <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1571,55 +1578,53 @@
       <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="C5" s="8"/>
+      <c r="D5"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:6">
       <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -1627,7 +1632,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>3</v>
@@ -1690,7 +1695,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>3</v>
@@ -1796,7 +1801,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>3</v>
@@ -1818,20 +1823,20 @@
         <v>0</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1839,18 +1844,18 @@
         <v>1</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1858,15 +1863,15 @@
         <v>2</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -1875,15 +1880,15 @@
         <v>3</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -1898,7 +1903,7 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -1912,7 +1917,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1920,90 +1925,90 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2011,127 +2016,127 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6"/>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/机器配置.xlsx
+++ b/机器配置.xlsx
@@ -42,43 +42,43 @@
     <t>-</t>
   </si>
   <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>中间 0.79</t>
+  </si>
+  <si>
+    <t>clip</t>
+  </si>
+  <si>
+    <t>缩0 放0.5</t>
+  </si>
+  <si>
+    <t>rightArm</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>缩0 放1</t>
+  </si>
+  <si>
+    <t>claw</t>
+  </si>
+  <si>
     <t>leftArm</t>
   </si>
   <si>
-    <t>clip</t>
-  </si>
-  <si>
-    <t>缩0 放0.5</t>
-  </si>
-  <si>
-    <t>rightArm</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>缩0 放1</t>
-  </si>
-  <si>
     <t>leftScale</t>
   </si>
   <si>
     <t>伸：0.5 缩：1</t>
   </si>
   <si>
-    <t>rotate</t>
-  </si>
-  <si>
-    <t>中间 0.79</t>
-  </si>
-  <si>
     <t>rightScale</t>
   </si>
   <si>
     <t>伸：1 缩：0.5</t>
-  </si>
-  <si>
-    <t>claw</t>
   </si>
   <si>
     <t>intake</t>
@@ -1494,7 +1494,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1546,12 +1546,14 @@
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -1561,15 +1563,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4"/>
       <c r="E4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -1577,6 +1579,9 @@
     <row r="5" spans="1:8">
       <c r="A5" s="8">
         <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5"/>
@@ -1589,39 +1594,35 @@
       <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="E8" s="8" t="s">
         <v>17</v>

--- a/机器配置.xlsx
+++ b/机器配置.xlsx
@@ -1494,7 +1494,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90740740740741" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1590,7 +1590,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -1604,8 +1604,10 @@
       <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -1617,6 +1619,8 @@
       <c r="F7" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8">

--- a/机器配置.xlsx
+++ b/机器配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17826\Desktop\FTC\FTCteamcode2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E0212A-A5E7-44B3-82DA-F01F7CFA48BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFAA2C7-83D4-44E6-8B48-440325FADE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,7 +285,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>换算：y=1.35-0.7 x</t>
+    <t>换算：y=0.7x+0.3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -413,11 +413,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,22 +654,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>149772</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7894</xdr:rowOff>
+      <xdr:colOff>519737</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>404135</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>94127</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>361448</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78286</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AD8DD9-1877-5C59-5527-A1079D724EB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65163ECA-A156-9DDA-61E0-7AA9EE734BEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -685,8 +685,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8339082" y="187446"/>
-          <a:ext cx="5851122" cy="3497715"/>
+          <a:off x="8711237" y="111125"/>
+          <a:ext cx="7890336" cy="4507411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14"/>
@@ -1060,7 +1060,7 @@
       <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H6" s="6"/>
@@ -1077,10 +1077,10 @@
       <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1199,6 +1199,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6">
@@ -1527,7 +1528,7 @@
       <c r="C24" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1539,7 +1540,7 @@
       <c r="C25" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
@@ -1551,7 +1552,7 @@
       <c r="C26" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
@@ -1563,7 +1564,7 @@
       <c r="C27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
